--- a/RunManager.xlsx
+++ b/RunManager.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\openallstate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20775" windowHeight="3855" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7680" windowWidth="26250" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CommonTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData1" sheetId="4" r:id="rId2"/>
-    <sheet name="TestData" sheetId="2" r:id="rId3"/>
-    <sheet name="ExecutionController" sheetId="3" r:id="rId4"/>
+    <sheet name="CommonTestData" r:id="rId1" sheetId="1"/>
+    <sheet name="TestData1" r:id="rId2" sheetId="4"/>
+    <sheet name="TestData" r:id="rId3" sheetId="2"/>
+    <sheet name="ExecutionController" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="62">
   <si>
     <t>testCaseName</t>
   </si>
@@ -56,112 +56,76 @@
     <t>BubbleMSGs</t>
   </si>
   <si>
+    <t>Step ID</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Notes/comments</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>EntryPoint</t>
+  </si>
+  <si>
+    <t>can I help with billing questions</t>
+  </si>
+  <si>
+    <t>AL2585</t>
+  </si>
+  <si>
+    <t>c7r1</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>UserName:=-------------c3</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>c7r2</t>
+  </si>
+  <si>
     <t>main</t>
   </si>
   <si>
-    <t>Step ID</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Notes/comments</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>EntryPoint</t>
-  </si>
-  <si>
-    <t>Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.
-What is the line number?</t>
+    <t>yes</t>
   </si>
   <si>
     <t>What is the state? (please enter in CAPS).</t>
   </si>
   <si>
-    <t>can I help with billing questions</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>c7r3</t>
+  </si>
+  <si>
+    <t>c2r4</t>
   </si>
   <si>
     <t>IL</t>
-  </si>
-  <si>
-    <t>Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
-You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.
-Does the customer want to discuss options or ask what-if questions?</t>
-  </si>
-  <si>
-    <t>AL2585</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>a222</t>
-  </si>
-  <si>
-    <t>c6r1</t>
-  </si>
-  <si>
-    <t>c7r1</t>
-  </si>
-  <si>
-    <t>c6r2</t>
-  </si>
-  <si>
-    <t>c7r2</t>
-  </si>
-  <si>
-    <t>c6r3</t>
-  </si>
-  <si>
-    <t>c7r3</t>
-  </si>
-  <si>
-    <t>c6r4</t>
-  </si>
-  <si>
-    <t>c7r4</t>
-  </si>
-  <si>
-    <t>c6r5</t>
-  </si>
-  <si>
-    <t>c7r5</t>
-  </si>
-  <si>
-    <t>c2r4</t>
-  </si>
-  <si>
-    <t>c2r5</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
   <si>
     <t>A licensed service representative must help them.
@@ -173,7 +137,16 @@
 Was I successfully able to solve your problem?</t>
   </si>
   <si>
+    <t>c7r4</t>
+  </si>
+  <si>
+    <t>c2r5</t>
+  </si>
+  <si>
     <t>I would appreciate any feedback on the below items. Please click one of the below buttons to provide freeform feedback, or if you are completely satisfied.</t>
+  </si>
+  <si>
+    <t>c7r5</t>
   </si>
   <si>
     <t>s</t>
@@ -186,12 +159,103 @@
 Have a nice day.
 To start a new conversation, please select the "New Conversation" button on the top right of the screen.
 This conversation has been closed.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.The VDNs for Licensed Service in IL are
+English - 59218
+Spanish - 59225Was I successfully able to solve your problem?</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.The VDNs for Licensed Service in IL are
+English - 59218
+Spanish - 59225Was I successfully able to solve your problem?I would appreciate any feedback on the below items. Please click one of the below buttons to provide freeform feedback, or if you are completely satisfied.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.The VDNs for Licensed Service in IL are
+English - 59218
+Spanish - 59225Was I successfully able to solve your problem?I would appreciate any feedback on the below items. Please click one of the below buttons to provide freeform feedback, or if you are completely satisfied.Thank you for your feedback.Have a nice day.To start a new conversation, please select the "New Conversation" button on the top right of the screen.This conversation has been closed.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?</t>
+  </si>
+  <si>
+    <t>Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hi Bhaskar.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.The VDNs for Licensed Service in IL are
+English - 59218
+Spanish - 59225</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.The VDNs for Licensed Service in IL are
+English - 59218
+Spanish - 59225Was I successfully able to solve your problem?I would appreciate any feedback on the below items. Please click one of the below buttons to provide freeform feedback, or if you are completely satisfied.Thank you for your feedback.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.The VDNs for Licensed Service in IL are
+English - 59218
+Spanish - 59225Was I successfully able to solve your problem?I would appreciate any feedback on the below items. Please click one of the below buttons to provide freeform feedback, or if you are completely satisfied.Thank you for your feedback.Have a nice day.</t>
+  </si>
+  <si>
+    <t>Hi Bhaskar.Proper authentication is required before giving out policy information and making policy changes. After successful authentication, click on authenticate on the CTI bar.What is the line number?Unlicensed agents are able read information from Billing Explanation Tool and the Premium Change Link in Policy View EXCEPT for NJ Tiering/TAG.
+You can only discuss historical or current information on the policy; you cannot review options or answer what-if questions.Does the customer want to discuss options or ask what-if questions?What is the state? (please enter in CAPS).A licensed service representative must help them.Let me try to find the correct extension.Prior to transfer, please ensure the caller has been authenticated and the CTI Bar has been changed to green.The VDNs for Licensed Service in IL are
+English - 59218
+Spanish - 59225Was I successfully able to solve your problem?I would appreciate any feedback on the below items. Please click one of the below buttons to provide freeform feedback, or if you are completely satisfied.Thank you for your feedback.Have a nice day.To start a new conversation, please select the "New Conversation" button on the top right of the screen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,34 +325,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -305,10 +369,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -343,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -506,21 +570,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -537,7 +601,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -589,15 +653,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -605,238 +669,238 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="45.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="59.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="8.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="24.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="59.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="18.140625" collapsed="true"/>
+    <col min="9" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row ht="120" r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row ht="150" r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="90" r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B2"/>
@@ -844,11 +908,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,13 +947,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -898,7 +962,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>